--- a/Luban/MiniTemplate/Datas/#BondData.xlsx
+++ b/Luban/MiniTemplate/Datas/#BondData.xlsx
@@ -56,7 +56,7 @@
     <t>(list#sep=,),int</t>
   </si>
   <si>
-    <t>(list#sep=,),string</t>
+    <t>(list#sep=|),string</t>
   </si>
   <si>
     <t>##group</t>
@@ -74,7 +74,7 @@
     <t>2,4,6</t>
   </si>
   <si>
-    <t>攻击1，攻击2，攻击3</t>
+    <t>攻击1|攻击2|攻击3</t>
   </si>
   <si>
     <t>Defend</t>
@@ -83,7 +83,7 @@
     <t>防御</t>
   </si>
   <si>
-    <t>防御1，防御2，防御3</t>
+    <t>防御1|防御2|防御3</t>
   </si>
   <si>
     <t>Move</t>
@@ -92,7 +92,7 @@
     <t>移动</t>
   </si>
   <si>
-    <t>移动1，移动2，移动3</t>
+    <t>移动1|移动2|移动3</t>
   </si>
   <si>
     <t>HP</t>
@@ -101,7 +101,7 @@
     <t>血量</t>
   </si>
   <si>
-    <t>血量1，血量2，血量3</t>
+    <t>血量1|血量2|血量3</t>
   </si>
 </sst>
 </file>

--- a/Luban/MiniTemplate/Datas/#BondData.xlsx
+++ b/Luban/MiniTemplate/Datas/#BondData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30480" windowHeight="13300"/>
+    <workbookView windowWidth="30240" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -44,6 +44,9 @@
     <t>desc</t>
   </si>
   <si>
+    <t>buffList</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -59,12 +62,18 @@
     <t>(list#sep=|),string</t>
   </si>
   <si>
+    <t>list,((list#sep=|),BuffData)</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
     <t>##</t>
   </si>
   <si>
+    <t>有几个buff,1,1,0代表 1代表攻击，1，0代表值</t>
+  </si>
+  <si>
     <t>Attack</t>
   </si>
   <si>
@@ -75,6 +84,12 @@
   </si>
   <si>
     <t>攻击1|攻击2|攻击3</t>
+  </si>
+  <si>
+    <t>1,1,0</t>
+  </si>
+  <si>
+    <t>1,2,0</t>
   </si>
   <si>
     <t>Defend</t>
@@ -114,20 +129,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFD0D0D0"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -594,133 +602,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -731,8 +739,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1056,7 +1064,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1065,7 +1073,7 @@
     <col min="3" max="3" width="30.2053571428571" customWidth="1"/>
     <col min="4" max="4" width="17.2589285714286" customWidth="1"/>
     <col min="5" max="5" width="42.4017857142857" customWidth="1"/>
-    <col min="6" max="6" width="11.4642857142857" customWidth="1"/>
+    <col min="6" max="6" width="29.9107142857143" customWidth="1"/>
     <col min="7" max="7" width="15.7589285714286" customWidth="1"/>
     <col min="8" max="8" width="19.9375" customWidth="1"/>
     <col min="9" max="9" width="19.6428571428571" customWidth="1"/>
@@ -1091,97 +1099,150 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1"/>
-      <c r="G1"/>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:8">
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
+      <c r="H7" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F4:H4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/Luban/MiniTemplate/Datas/#BondData.xlsx
+++ b/Luban/MiniTemplate/Datas/#BondData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -74,49 +74,64 @@
     <t>有几个buff,1,1,0代表 1代表攻击，1，0代表值</t>
   </si>
   <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>2,4,6</t>
-  </si>
-  <si>
-    <t>攻击1|攻击2|攻击3</t>
-  </si>
-  <si>
-    <t>1,1,0</t>
-  </si>
-  <si>
-    <t>1,2,0</t>
-  </si>
-  <si>
-    <t>Defend</t>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>防御1|防御2|防御3</t>
-  </si>
-  <si>
-    <t>Move</t>
-  </si>
-  <si>
-    <t>移动</t>
-  </si>
-  <si>
-    <t>移动1|移动2|移动3</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>血量</t>
-  </si>
-  <si>
-    <t>血量1|血量2|血量3</t>
+    <t>数字羁绊</t>
+  </si>
+  <si>
+    <t>数字羁绊Name</t>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+  </si>
+  <si>
+    <t>攻击1|攻击2|攻击3|攻击5</t>
+  </si>
+  <si>
+    <t>永久加攻击,1,0</t>
+  </si>
+  <si>
+    <t>永久加攻击,2,0</t>
+  </si>
+  <si>
+    <t>永久加攻击,3,0</t>
+  </si>
+  <si>
+    <t>永久加攻击,5,0|永久加攻击速度,10,0</t>
+  </si>
+  <si>
+    <t>万物伊始</t>
+  </si>
+  <si>
+    <t>万物伊始Name</t>
+  </si>
+  <si>
+    <t>防御1</t>
+  </si>
+  <si>
+    <t>永久加防御,1,0</t>
+  </si>
+  <si>
+    <t>独特数</t>
+  </si>
+  <si>
+    <t>独特数Name</t>
+  </si>
+  <si>
+    <t>移动1</t>
+  </si>
+  <si>
+    <t>永久加移动,1,0</t>
+  </si>
+  <si>
+    <t>开方数</t>
+  </si>
+  <si>
+    <t>开方数Name</t>
+  </si>
+  <si>
+    <t>血量1</t>
+  </si>
+  <si>
+    <t>永久加血量,1,0</t>
   </si>
 </sst>
 </file>
@@ -1061,29 +1076,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="23.0714285714286" customWidth="1"/>
     <col min="3" max="3" width="30.2053571428571" customWidth="1"/>
     <col min="4" max="4" width="17.2589285714286" customWidth="1"/>
     <col min="5" max="5" width="42.4017857142857" customWidth="1"/>
-    <col min="6" max="6" width="29.9107142857143" customWidth="1"/>
+    <col min="6" max="6" width="28.1160714285714" customWidth="1"/>
     <col min="7" max="7" width="15.7589285714286" customWidth="1"/>
     <col min="8" max="8" width="19.9375" customWidth="1"/>
-    <col min="9" max="9" width="19.6428571428571" customWidth="1"/>
+    <col min="9" max="9" width="42.5535714285714" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="11.75" customWidth="1"/>
     <col min="12" max="12" width="23.2142857142857" customWidth="1"/>
     <col min="13" max="13" width="12.1964285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1104,8 +1119,9 @@
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1126,13 +1142,14 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1141,8 +1158,9 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:9">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -1162,76 +1180,61 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="4:4">
@@ -1239,9 +1242,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
